--- a/Study 2/results/risktaking_sem_results.xlsx
+++ b/Study 2/results/risktaking_sem_results.xlsx
@@ -467,22 +467,22 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>0.23184617226429</v>
+        <v>0.231846231458614</v>
       </c>
       <c r="C2" t="n">
-        <v>0.115444479300295</v>
+        <v>0.115444477046807</v>
       </c>
       <c r="D2" t="n">
-        <v>2.00829154992514</v>
+        <v>2.00829210187865</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0446123193095409</v>
+        <v>0.044612260690801</v>
       </c>
       <c r="F2" t="n">
-        <v>0.00557915062173195</v>
+        <v>0.00557921423281071</v>
       </c>
       <c r="G2" t="n">
-        <v>0.458113193906849</v>
+        <v>0.458113248684417</v>
       </c>
     </row>
     <row r="3">
@@ -490,22 +490,22 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.0573964305414669</v>
+        <v>-0.057396418603346</v>
       </c>
       <c r="C3" t="n">
-        <v>0.118482527254093</v>
+        <v>0.118482518972507</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.484429492446401</v>
+        <v>-0.484429425548123</v>
       </c>
       <c r="E3" t="n">
-        <v>0.628081091976868</v>
+        <v>0.628081139444399</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.289617916756774</v>
+        <v>-0.289617888587043</v>
       </c>
       <c r="G3" t="n">
-        <v>0.17482505567384</v>
+        <v>0.174825051380351</v>
       </c>
     </row>
     <row r="4">
@@ -513,22 +513,22 @@
         <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.135068328165022</v>
+        <v>-0.135068338244247</v>
       </c>
       <c r="C4" t="n">
-        <v>0.117590638514933</v>
+        <v>0.117590630947911</v>
       </c>
       <c r="D4" t="n">
-        <v>-1.14863164169203</v>
+        <v>-1.14863180132164</v>
       </c>
       <c r="E4" t="n">
-        <v>0.250707903974721</v>
+        <v>0.250707838124195</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.365541744573359</v>
+        <v>-0.365541739821493</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0954050882433155</v>
+        <v>0.0954050633329991</v>
       </c>
     </row>
     <row r="5">
@@ -536,22 +536,22 @@
         <v>10</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.0548853543776387</v>
+        <v>-0.0548853429618069</v>
       </c>
       <c r="C5" t="n">
-        <v>0.113298953167496</v>
+        <v>0.113298945248227</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.484429492446401</v>
+        <v>-0.484429425548123</v>
       </c>
       <c r="E5" t="n">
-        <v>0.628081091976868</v>
+        <v>0.628081139444399</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.276947222072021</v>
+        <v>-0.276947195134707</v>
       </c>
       <c r="G5" t="n">
-        <v>0.167176513316744</v>
+        <v>0.167176509211094</v>
       </c>
     </row>
     <row r="6">
@@ -559,22 +559,22 @@
         <v>11</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.140729618702261</v>
+        <v>-0.140729629203949</v>
       </c>
       <c r="C6" t="n">
-        <v>0.122519364428229</v>
+        <v>0.12251935654404</v>
       </c>
       <c r="D6" t="n">
-        <v>-1.14863164169203</v>
+        <v>-1.14863180132164</v>
       </c>
       <c r="E6" t="n">
-        <v>0.250707903974721</v>
+        <v>0.250707838124195</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.380863160390328</v>
+        <v>-0.380863155439291</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0994039229858058</v>
+        <v>0.0994038970313915</v>
       </c>
     </row>
     <row r="7">
@@ -585,19 +585,19 @@
         <v>0.340552336369478</v>
       </c>
       <c r="C7" t="n">
-        <v>0.112498241530426</v>
+        <v>0.112498235995284</v>
       </c>
       <c r="D7" t="n">
-        <v>3.02717919619546</v>
+        <v>3.02717934513885</v>
       </c>
       <c r="E7" t="n">
-        <v>0.00246847575686537</v>
+        <v>0.00246847454049948</v>
       </c>
       <c r="F7" t="n">
-        <v>0.120059834645755</v>
+        <v>0.120059845494435</v>
       </c>
       <c r="G7" t="n">
-        <v>0.561044838093202</v>
+        <v>0.561044827244522</v>
       </c>
     </row>
     <row r="8">
@@ -608,19 +608,19 @@
         <v>-0.304313521065174</v>
       </c>
       <c r="C8" t="n">
-        <v>0.121653489871391</v>
+        <v>0.12165348456055</v>
       </c>
       <c r="D8" t="n">
-        <v>-2.50147793858512</v>
+        <v>-2.50147804778835</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0123676147670959</v>
+        <v>0.0123676109529256</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.542749979806709</v>
+        <v>-0.542749969397651</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.0658770623236389</v>
+        <v>-0.0658770727326969</v>
       </c>
     </row>
     <row r="9">
@@ -628,22 +628,22 @@
         <v>14</v>
       </c>
       <c r="B9" t="n">
-        <v>0.910718133156946</v>
+        <v>0.910718042923561</v>
       </c>
       <c r="C9" t="n">
-        <v>0.15805120319026</v>
+        <v>0.158051188054153</v>
       </c>
       <c r="D9" t="n">
-        <v>5.7621714657916</v>
+        <v>5.76217144670576</v>
       </c>
       <c r="E9" t="n">
-        <v>0.00000000830385737948802</v>
+        <v>0.00000000830385826766644</v>
       </c>
       <c r="F9" t="n">
-        <v>0.600943467190815</v>
+        <v>0.600943406623655</v>
       </c>
       <c r="G9" t="n">
-        <v>1.22049279912308</v>
+        <v>1.22049267922347</v>
       </c>
     </row>
     <row r="10">
@@ -654,19 +654,19 @@
         <v>0.644865857434652</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0424428324386202</v>
+        <v>0.0424428324884893</v>
       </c>
       <c r="D10" t="n">
-        <v>15.1937516980574</v>
+        <v>15.1937516802052</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0.561679434453088</v>
+        <v>0.561679434355347</v>
       </c>
       <c r="G10" t="n">
-        <v>0.728052280416216</v>
+        <v>0.728052280513958</v>
       </c>
     </row>
     <row r="11">
@@ -674,22 +674,22 @@
         <v>16</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0858442643246224</v>
+        <v>0.0858442862421426</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0427449213369131</v>
+        <v>0.0427449205025279</v>
       </c>
       <c r="D11" t="n">
-        <v>2.00829154995988</v>
+        <v>2.00829210191339</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0446123193058507</v>
+        <v>0.0446122606871109</v>
       </c>
       <c r="F11" t="n">
-        <v>0.00206575798227515</v>
+        <v>0.00206578153516024</v>
       </c>
       <c r="G11" t="n">
-        <v>0.16962277066697</v>
+        <v>0.169622790949125</v>
       </c>
     </row>
     <row r="12">
@@ -697,22 +697,22 @@
         <v>17</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0776718976235549</v>
+        <v>0.0776719196409008</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0418249136994448</v>
+        <v>0.041824912820566</v>
       </c>
       <c r="D12" t="n">
-        <v>1.85707251380619</v>
+        <v>1.8570730792464</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0633008381064628</v>
+        <v>0.0633007576711311</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.00430342688385288</v>
+        <v>-0.00430340314393608</v>
       </c>
       <c r="G12" t="n">
-        <v>0.159647222130963</v>
+        <v>0.159647242425738</v>
       </c>
     </row>
     <row r="13">
@@ -720,22 +720,22 @@
         <v>18</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0867292924190873</v>
+        <v>0.0867293145832869</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0437216832515271</v>
+        <v>0.043721682553995</v>
       </c>
       <c r="D13" t="n">
-        <v>1.98366773575804</v>
+        <v>1.98366827434371</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0472928926164586</v>
+        <v>0.0472928325359281</v>
       </c>
       <c r="F13" t="n">
-        <v>0.00103636790262598</v>
+        <v>0.00103639143396345</v>
       </c>
       <c r="G13" t="n">
-        <v>0.172422216935549</v>
+        <v>0.17242223773261</v>
       </c>
     </row>
     <row r="14">
@@ -743,22 +743,22 @@
         <v>19</v>
       </c>
       <c r="B14" t="n">
-        <v>0.078439225309521</v>
+        <v>0.078439247553622</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0422814322314163</v>
+        <v>0.0422814314112903</v>
       </c>
       <c r="D14" t="n">
-        <v>1.85516954298531</v>
+        <v>1.85517010506595</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0635720194914366</v>
+        <v>0.0635719392510927</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.00443085907882604</v>
+        <v>-0.0044308352273075</v>
       </c>
       <c r="G14" t="n">
-        <v>0.161309309697868</v>
+        <v>0.161309330334552</v>
       </c>
     </row>
     <row r="15">
@@ -766,22 +766,22 @@
         <v>20</v>
       </c>
       <c r="B15" t="n">
-        <v>-7.51204361186059</v>
+        <v>-7.51204169390688</v>
       </c>
       <c r="C15" t="n">
-        <v>3.77304868048467</v>
+        <v>3.77304669806868</v>
       </c>
       <c r="D15" t="n">
-        <v>-1.9909744739619</v>
+        <v>-1.99097501171986</v>
       </c>
       <c r="E15" t="n">
-        <v>0.046483693620486</v>
+        <v>0.0464836344970727</v>
       </c>
       <c r="F15" t="n">
-        <v>-14.9070831375269</v>
+        <v>-14.9070773341093</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.117004086194275</v>
+        <v>-0.117006053704493</v>
       </c>
     </row>
     <row r="16">
@@ -789,22 +789,22 @@
         <v>21</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.1956149730799</v>
+        <v>-0.195614972165756</v>
       </c>
       <c r="C16" t="n">
-        <v>0.232095167113399</v>
+        <v>0.232095151211492</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.842822259130992</v>
+        <v>-0.842822312937964</v>
       </c>
       <c r="E16" t="n">
-        <v>0.39932785707939</v>
+        <v>0.399327826982044</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.650513141607967</v>
+        <v>-0.650513109526659</v>
       </c>
       <c r="G16" t="n">
-        <v>0.259283195448167</v>
+        <v>0.259283165195146</v>
       </c>
     </row>
     <row r="17">
@@ -812,22 +812,22 @@
         <v>22</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.0978074865399499</v>
+        <v>-0.0978074860828782</v>
       </c>
       <c r="C17" t="n">
-        <v>0.116047583556699</v>
+        <v>0.116047575605746</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.842822259130992</v>
+        <v>-0.842822312937964</v>
       </c>
       <c r="E17" t="n">
-        <v>0.39932785707939</v>
+        <v>0.399327826982044</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.325256570803983</v>
+        <v>-0.325256554763329</v>
       </c>
       <c r="G17" t="n">
-        <v>0.129641597724084</v>
+        <v>0.129641582597573</v>
       </c>
     </row>
     <row r="18">
@@ -835,22 +835,22 @@
         <v>23</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.0119632222153275</v>
+        <v>-0.0119631998407356</v>
       </c>
       <c r="C18" t="n">
-        <v>0.114541818033421</v>
+        <v>0.11454181026653</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.104444144686414</v>
+        <v>-0.104443956428644</v>
       </c>
       <c r="E18" t="n">
-        <v>0.916816891828688</v>
+        <v>0.916817041219609</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.236461060284573</v>
+        <v>-0.236461022687155</v>
       </c>
       <c r="G18" t="n">
-        <v>0.212534615853918</v>
+        <v>0.212534623005684</v>
       </c>
     </row>
     <row r="19">
@@ -858,22 +858,22 @@
         <v>24</v>
       </c>
       <c r="B19" t="n">
-        <v>-0.0858442643246224</v>
+        <v>-0.0858442862421426</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0427449213369131</v>
+        <v>0.0427449205025279</v>
       </c>
       <c r="D19" t="n">
-        <v>-2.00829154995988</v>
+        <v>-2.00829210191339</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0446123193058507</v>
+        <v>0.0446122606871109</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.16962277066697</v>
+        <v>-0.169622790949125</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.00206575798227515</v>
+        <v>-0.00206578153516024</v>
       </c>
     </row>
     <row r="20">
@@ -881,22 +881,22 @@
         <v>25</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0858442643246224</v>
+        <v>0.0858442862421426</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0427449213369131</v>
+        <v>0.0427449205025279</v>
       </c>
       <c r="D20" t="n">
-        <v>2.00829154995988</v>
+        <v>2.00829210191339</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0223061596529254</v>
+        <v>0.0223061303435554</v>
       </c>
       <c r="F20" t="n">
-        <v>0.00206575798227515</v>
+        <v>0.00206578153516024</v>
       </c>
       <c r="G20" t="n">
-        <v>0.16962277066697</v>
+        <v>0.169622790949125</v>
       </c>
     </row>
     <row r="21">
@@ -904,22 +904,22 @@
         <v>26</v>
       </c>
       <c r="B21" t="n">
-        <v>0.1956149730799</v>
+        <v>0.195614972165756</v>
       </c>
       <c r="C21" t="n">
-        <v>0.232095167113399</v>
+        <v>0.232095151211492</v>
       </c>
       <c r="D21" t="n">
-        <v>0.842822259130992</v>
+        <v>0.842822312937964</v>
       </c>
       <c r="E21" t="n">
-        <v>0.199663928539695</v>
+        <v>0.199663913491022</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.259283195448167</v>
+        <v>-0.259283165195146</v>
       </c>
       <c r="G21" t="n">
-        <v>0.650513141607967</v>
+        <v>0.650513109526659</v>
       </c>
     </row>
     <row r="22">
@@ -927,22 +927,22 @@
         <v>27</v>
       </c>
       <c r="B22" t="n">
-        <v>-0.109770708755277</v>
+        <v>-0.109770685923614</v>
       </c>
       <c r="C22" t="n">
-        <v>0.226597906334992</v>
+        <v>0.226597890496454</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.484429492446401</v>
+        <v>-0.484429425548123</v>
       </c>
       <c r="E22" t="n">
-        <v>0.685959454011566</v>
+        <v>0.6859594302778</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.553894444144043</v>
+        <v>-0.553894390269414</v>
       </c>
       <c r="G22" t="n">
-        <v>0.334353026633488</v>
+        <v>0.334353018422187</v>
       </c>
     </row>
     <row r="23">
@@ -950,16 +950,16 @@
         <v>28</v>
       </c>
       <c r="B23" t="n">
-        <v>0.078439225309521</v>
+        <v>0.078439247553622</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0422814322314163</v>
+        <v>0.0422814314112903</v>
       </c>
       <c r="D23" t="n">
-        <v>1.85516954298531</v>
+        <v>1.85517010506595</v>
       </c>
       <c r="E23" t="n">
-        <v>0.968213990254282</v>
+        <v>0.968214030374454</v>
       </c>
       <c r="F23"/>
       <c r="G23"/>
@@ -969,16 +969,16 @@
         <v>29</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0867292924190873</v>
+        <v>0.0867293145832869</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0437216832515271</v>
+        <v>0.043721682553995</v>
       </c>
       <c r="D24" t="n">
-        <v>1.98366773575804</v>
+        <v>1.98366827434371</v>
       </c>
       <c r="E24" t="n">
-        <v>0.976353553691771</v>
+        <v>0.976353583732036</v>
       </c>
       <c r="F24"/>
       <c r="G24"/>
@@ -988,16 +988,16 @@
         <v>30</v>
       </c>
       <c r="B25" t="n">
-        <v>7.51204361186059</v>
+        <v>7.51204169390688</v>
       </c>
       <c r="C25" t="n">
-        <v>3.77304868048467</v>
+        <v>3.77304669806868</v>
       </c>
       <c r="D25" t="n">
-        <v>1.9909744739619</v>
+        <v>1.99097501171986</v>
       </c>
       <c r="E25" t="n">
-        <v>0.976758153189757</v>
+        <v>0.976758182751464</v>
       </c>
       <c r="F25"/>
       <c r="G25"/>
@@ -1007,16 +1007,16 @@
         <v>31</v>
       </c>
       <c r="B26" t="n">
-        <v>7.51204361186059</v>
+        <v>7.51204169390688</v>
       </c>
       <c r="C26" t="n">
-        <v>3.77304868048467</v>
+        <v>3.77304669806868</v>
       </c>
       <c r="D26" t="n">
-        <v>1.9909744739619</v>
+        <v>1.99097501171986</v>
       </c>
       <c r="E26" t="n">
-        <v>0.023241846810243</v>
+        <v>0.0232418172485364</v>
       </c>
       <c r="F26"/>
       <c r="G26"/>
